--- a/Mifos Automation Excels/Client/2610-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-SPEDUEDATE-FEE-%APRAMT-WAIVECHARGE-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2610-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-SPEDUEDATE-FEE-%APRAMT-WAIVECHARGE-Newcreateloan1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
   <si>
     <t>#</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>Paid Date</t>
-  </si>
-  <si>
-    <t>heading</t>
   </si>
   <si>
     <t>Principal Due</t>
@@ -253,7 +250,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +270,14 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -300,7 +305,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -323,45 +328,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -399,6 +372,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -717,123 +693,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="4">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B4" s="4">
         <v>42005</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B5" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="4">
         <v>42005</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="8">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="6">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="B8" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="4">
+        <v>42064</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="18">
+        <v>42019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="13">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="6">
-        <v>42064</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="13">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="20">
-        <v>42019</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -844,119 +820,117 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
         <v>5000</v>
       </c>
-      <c r="B2" s="17">
-        <v>0</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17">
-        <v>0</v>
-      </c>
-      <c r="E2" s="18">
+      <c r="B2" s="15">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16">
         <v>5000</v>
       </c>
-      <c r="F2" s="11">
-        <v>2423.89</v>
-      </c>
-      <c r="G2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
-        <v>176.47</v>
-      </c>
-      <c r="B3" s="17">
-        <v>0</v>
-      </c>
-      <c r="C3" s="17">
-        <v>0</v>
-      </c>
-      <c r="D3" s="17">
-        <v>0</v>
-      </c>
-      <c r="E3" s="17">
-        <v>176.47</v>
-      </c>
-      <c r="F3" s="17">
-        <v>96.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="F2" s="9">
+        <v>2373.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>179.26</v>
+      </c>
+      <c r="B3" s="15">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>179.26</v>
+      </c>
+      <c r="F3" s="15">
+        <v>96.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
         <v>50</v>
       </c>
-      <c r="B4" s="17">
-        <v>0</v>
-      </c>
-      <c r="C4" s="17">
+      <c r="B4" s="15">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15">
         <v>50</v>
       </c>
-      <c r="D4" s="17">
-        <v>0</v>
-      </c>
-      <c r="E4" s="17">
-        <v>0</v>
-      </c>
-      <c r="F4" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
-        <v>0</v>
-      </c>
-      <c r="B5" s="17">
-        <v>0</v>
-      </c>
-      <c r="C5" s="17">
-        <v>0</v>
-      </c>
-      <c r="D5" s="17">
-        <v>0</v>
-      </c>
-      <c r="E5" s="17">
-        <v>0</v>
-      </c>
-      <c r="F5" s="17">
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>0</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
         <v>0</v>
       </c>
     </row>
@@ -967,10 +941,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,422 +959,429 @@
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
     <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.85546875" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="18" max="18" width="4.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="20"/>
+      <c r="O1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="8">
+        <v>42005</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16">
+        <v>5000</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15">
+        <v>0</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15">
+        <v>0</v>
+      </c>
+      <c r="L2" s="15">
+        <v>0</v>
+      </c>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15">
+        <v>14</v>
+      </c>
+      <c r="C3" s="8">
+        <v>42019</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15">
+        <v>800.37</v>
+      </c>
+      <c r="G3" s="9">
+        <v>4199.63</v>
+      </c>
+      <c r="H3" s="15">
+        <v>23.01</v>
+      </c>
+      <c r="I3" s="15">
+        <v>50</v>
+      </c>
+      <c r="J3" s="15">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15">
+        <v>873.38</v>
+      </c>
+      <c r="L3" s="15">
+        <v>0</v>
+      </c>
+      <c r="M3" s="15">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15">
+        <v>0</v>
+      </c>
+      <c r="P3" s="15">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15">
+        <v>823.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15">
+        <v>17</v>
+      </c>
+      <c r="C4" s="8">
+        <v>42036</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15">
+        <v>795.43</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3404.2</v>
+      </c>
+      <c r="H4" s="15">
+        <v>27.95</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0</v>
+      </c>
+      <c r="J4" s="15">
+        <v>0</v>
+      </c>
+      <c r="K4" s="15">
+        <v>823.38</v>
+      </c>
+      <c r="L4" s="15">
+        <v>0</v>
+      </c>
+      <c r="M4" s="15">
+        <v>0</v>
+      </c>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15">
+        <v>0</v>
+      </c>
+      <c r="P4" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15">
+        <v>823.38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15">
+        <v>28</v>
+      </c>
+      <c r="C5" s="8">
+        <v>42064</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15">
+        <v>777.35</v>
+      </c>
+      <c r="G5" s="9">
+        <v>2626.85</v>
+      </c>
+      <c r="H5" s="15">
+        <v>46.03</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>823.38</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0</v>
+      </c>
+      <c r="M5" s="15">
+        <v>0</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15">
+        <v>0</v>
+      </c>
+      <c r="P5" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15">
+        <v>823.38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="10">
-        <v>42005</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18">
-        <v>5000</v>
-      </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17">
-        <v>0</v>
-      </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17">
-        <v>0</v>
-      </c>
-      <c r="L2" s="17">
-        <v>0</v>
-      </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
-        <v>1</v>
-      </c>
-      <c r="B3" s="17">
-        <v>14</v>
-      </c>
-      <c r="C3" s="10">
-        <v>42019</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17">
-        <v>850.37</v>
-      </c>
-      <c r="G3" s="11">
-        <v>4149.63</v>
-      </c>
-      <c r="H3" s="17">
-        <v>23.01</v>
-      </c>
-      <c r="I3" s="17">
-        <v>50</v>
-      </c>
-      <c r="J3" s="17">
-        <v>0</v>
-      </c>
-      <c r="K3" s="17">
-        <v>923.38</v>
-      </c>
-      <c r="L3" s="17">
-        <v>0</v>
-      </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17">
-        <v>50</v>
-      </c>
-      <c r="O3" s="17">
-        <v>0</v>
-      </c>
-      <c r="P3" s="17">
-        <v>50</v>
-      </c>
-      <c r="Q3" s="17">
-        <v>873.38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
-        <v>2</v>
-      </c>
-      <c r="B4" s="17">
-        <v>17</v>
-      </c>
-      <c r="C4" s="10">
-        <v>42036</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17">
-        <v>795.71</v>
-      </c>
-      <c r="G4" s="11">
-        <v>3353.92</v>
-      </c>
-      <c r="H4" s="17">
-        <v>27.67</v>
-      </c>
-      <c r="I4" s="17">
-        <v>0</v>
-      </c>
-      <c r="J4" s="17">
-        <v>0</v>
-      </c>
-      <c r="K4" s="17">
+      <c r="B6" s="15">
+        <v>31</v>
+      </c>
+      <c r="C6" s="8">
+        <v>42095</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15">
+        <v>772.42</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1854.43</v>
+      </c>
+      <c r="H6" s="15">
+        <v>50.96</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
         <v>823.38</v>
       </c>
-      <c r="L4" s="17">
-        <v>0</v>
-      </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17">
-        <v>0</v>
-      </c>
-      <c r="O4" s="17">
-        <v>0</v>
-      </c>
-      <c r="P4" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="17">
+      <c r="L6" s="15">
+        <v>0</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15">
+        <v>0</v>
+      </c>
+      <c r="P6" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15">
         <v>823.38</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
-        <v>3</v>
-      </c>
-      <c r="B5" s="17">
-        <v>28</v>
-      </c>
-      <c r="C5" s="10">
-        <v>42064</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17">
-        <v>777.81</v>
-      </c>
-      <c r="G5" s="11">
-        <v>2576.11</v>
-      </c>
-      <c r="H5" s="17">
-        <v>45.57</v>
-      </c>
-      <c r="I5" s="17">
-        <v>0</v>
-      </c>
-      <c r="J5" s="17">
-        <v>0</v>
-      </c>
-      <c r="K5" s="17">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15">
+        <v>30</v>
+      </c>
+      <c r="C7" s="8">
+        <v>42125</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15">
+        <v>805.09</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1049.3399999999999</v>
+      </c>
+      <c r="H7" s="15">
+        <v>18.29</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
         <v>823.38</v>
       </c>
-      <c r="L5" s="17">
-        <v>0</v>
-      </c>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17">
-        <v>0</v>
-      </c>
-      <c r="O5" s="17">
-        <v>0</v>
-      </c>
-      <c r="P5" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="17">
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="15">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15">
+        <v>0</v>
+      </c>
+      <c r="P7" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15">
         <v>823.38</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
-        <v>4</v>
-      </c>
-      <c r="B6" s="17">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>6</v>
+      </c>
+      <c r="B8" s="15">
         <v>31</v>
       </c>
-      <c r="C6" s="10">
-        <v>42095</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17">
-        <v>772.93</v>
-      </c>
-      <c r="G6" s="11">
-        <v>1803.18</v>
-      </c>
-      <c r="H6" s="17">
-        <v>50.45</v>
-      </c>
-      <c r="I6" s="17">
-        <v>0</v>
-      </c>
-      <c r="J6" s="17">
-        <v>0</v>
-      </c>
-      <c r="K6" s="17">
+      <c r="C8" s="8">
+        <v>42156</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15">
+        <v>812.69</v>
+      </c>
+      <c r="G8" s="15">
+        <v>236.65</v>
+      </c>
+      <c r="H8" s="15">
+        <v>10.69</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15">
         <v>823.38</v>
       </c>
-      <c r="L6" s="17">
-        <v>0</v>
-      </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17">
-        <v>0</v>
-      </c>
-      <c r="O6" s="17">
-        <v>0</v>
-      </c>
-      <c r="P6" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="17">
+      <c r="L8" s="15">
+        <v>0</v>
+      </c>
+      <c r="M8" s="15">
+        <v>0</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15">
+        <v>0</v>
+      </c>
+      <c r="P8" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15">
         <v>823.38</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
-        <v>5</v>
-      </c>
-      <c r="B7" s="17">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15">
         <v>30</v>
       </c>
-      <c r="C7" s="10">
-        <v>42125</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17">
-        <v>805.6</v>
-      </c>
-      <c r="G7" s="17">
-        <v>997.58</v>
-      </c>
-      <c r="H7" s="17">
-        <v>17.78</v>
-      </c>
-      <c r="I7" s="17">
-        <v>0</v>
-      </c>
-      <c r="J7" s="17">
-        <v>0</v>
-      </c>
-      <c r="K7" s="17">
-        <v>823.38</v>
-      </c>
-      <c r="L7" s="17">
-        <v>0</v>
-      </c>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17">
-        <v>0</v>
-      </c>
-      <c r="O7" s="17">
-        <v>0</v>
-      </c>
-      <c r="P7" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="17">
-        <v>823.38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
-        <v>6</v>
-      </c>
-      <c r="B8" s="17">
-        <v>31</v>
-      </c>
-      <c r="C8" s="10">
-        <v>42156</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17">
-        <v>813.21</v>
-      </c>
-      <c r="G8" s="17">
-        <v>184.37</v>
-      </c>
-      <c r="H8" s="17">
-        <v>10.17</v>
-      </c>
-      <c r="I8" s="17">
-        <v>0</v>
-      </c>
-      <c r="J8" s="17">
-        <v>0</v>
-      </c>
-      <c r="K8" s="17">
-        <v>823.38</v>
-      </c>
-      <c r="L8" s="17">
-        <v>0</v>
-      </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17">
-        <v>0</v>
-      </c>
-      <c r="O8" s="17">
-        <v>0</v>
-      </c>
-      <c r="P8" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="17">
-        <v>823.38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
-        <v>7</v>
-      </c>
-      <c r="B9" s="17">
-        <v>30</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>42186</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17">
-        <v>184.37</v>
-      </c>
-      <c r="G9" s="17">
-        <v>0</v>
-      </c>
-      <c r="H9" s="17">
-        <v>1.82</v>
-      </c>
-      <c r="I9" s="17">
-        <v>0</v>
-      </c>
-      <c r="J9" s="17">
-        <v>0</v>
-      </c>
-      <c r="K9" s="17">
-        <v>186.19</v>
-      </c>
-      <c r="L9" s="17">
-        <v>0</v>
-      </c>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17">
-        <v>0</v>
-      </c>
-      <c r="O9" s="17">
-        <v>0</v>
-      </c>
-      <c r="P9" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="17">
-        <v>186.19</v>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15">
+        <v>236.65</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
+        <v>2.33</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0</v>
+      </c>
+      <c r="K9" s="15">
+        <v>238.98</v>
+      </c>
+      <c r="L9" s="15">
+        <v>0</v>
+      </c>
+      <c r="M9" s="15">
+        <v>0</v>
+      </c>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15">
+        <v>0</v>
+      </c>
+      <c r="P9" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15">
+        <v>238.98</v>
       </c>
     </row>
   </sheetData>
@@ -1419,114 +1400,114 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="3" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>17</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="8">
+        <v>42019</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="15">
+        <v>50</v>
+      </c>
+      <c r="F2" s="15">
+        <v>0</v>
+      </c>
+      <c r="G2" s="15">
+        <v>0</v>
+      </c>
+      <c r="H2" s="15">
+        <v>0</v>
+      </c>
+      <c r="I2" s="15">
+        <v>0</v>
+      </c>
+      <c r="J2" s="16">
+        <v>5000</v>
+      </c>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="B3" s="15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
-        <v>17</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="10">
-        <v>42019</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="17">
-        <v>50</v>
-      </c>
-      <c r="F2" s="17">
-        <v>0</v>
-      </c>
-      <c r="G2" s="17">
-        <v>0</v>
-      </c>
-      <c r="H2" s="17">
-        <v>0</v>
-      </c>
-      <c r="I2" s="17">
-        <v>0</v>
-      </c>
-      <c r="J2" s="18">
+      <c r="C3" s="8">
+        <v>42005</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="16">
         <v>5000</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
-        <v>16</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="10">
-        <v>42005</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="18">
-        <v>5000</v>
-      </c>
-      <c r="F3" s="17">
-        <v>0</v>
-      </c>
-      <c r="G3" s="17">
-        <v>0</v>
-      </c>
-      <c r="H3" s="17">
-        <v>0</v>
-      </c>
-      <c r="I3" s="17">
-        <v>0</v>
-      </c>
-      <c r="J3" s="18">
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15">
+        <v>0</v>
+      </c>
+      <c r="J3" s="16">
         <v>5000</v>
       </c>
       <c r="K3"/>
@@ -1552,107 +1533,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="14" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="14">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="13">
+        <v>42019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="16">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="15">
-        <v>42019</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="4">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B10" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="4">
         <v>42005</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="6">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1672,19 +1653,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="15" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
